--- a/Dico de donnée et dépendance fonctionelle.xlsx
+++ b/Dico de donnée et dépendance fonctionelle.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adurtis\Documents\Prosit\Base de donnée\Projet BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxence\Documents\Projet BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Dico de donnée" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="58">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -187,12 +187,24 @@
   </si>
   <si>
     <t>Statue_Progression</t>
+  </si>
+  <si>
+    <t>ID_Potion</t>
+  </si>
+  <si>
+    <t>Nom_Potion</t>
+  </si>
+  <si>
+    <t>Prix_Potion</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1146,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1141,20 +1209,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT44" sqref="AT44"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU49" sqref="AU49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="46" width="4.7109375" customWidth="1"/>
+    <col min="3" max="50" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>1</v>
       </c>
@@ -1287,8 +1355,20 @@
       <c r="AT1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1">
+        <v>45</v>
+      </c>
+      <c r="AV1">
+        <v>46</v>
+      </c>
+      <c r="AW1">
+        <v>47</v>
+      </c>
+      <c r="AX1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1297,7 +1377,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1309,7 +1389,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1321,7 +1401,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1333,7 +1413,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,7 +1425,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1357,7 +1437,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1369,7 +1449,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1381,7 +1461,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1393,7 +1473,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1402,7 +1482,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1414,7 +1494,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1426,7 +1506,7 @@
       </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1438,7 +1518,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1450,7 +1530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1636,7 +1716,7 @@
       </c>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1648,7 +1728,7 @@
       </c>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1657,7 +1737,7 @@
       </c>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1669,7 +1749,7 @@
       </c>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1681,7 +1761,7 @@
       </c>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1693,7 +1773,7 @@
       </c>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1702,7 +1782,7 @@
       </c>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1711,7 +1791,7 @@
       </c>
       <c r="AN39" s="1"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1723,7 +1803,7 @@
       </c>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1732,7 +1812,7 @@
       </c>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1744,7 +1824,7 @@
       </c>
       <c r="AQ42" s="1"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1756,7 +1836,7 @@
       </c>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1765,7 +1845,7 @@
       </c>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1776,6 +1856,51 @@
         <v>51</v>
       </c>
       <c r="AT45" s="1"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU46" s="1"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV47" s="1"/>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW48" s="1"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
